--- a/Homework2/results/pomiary.xlsx
+++ b/Homework2/results/pomiary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antoniwojcik/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studia\Semestr_6\code-optimization\Homework2\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1371CF-0224-4849-AED6-76D1E34BF68A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D663026A-78C6-4E83-AFAA-6403D4ACFC26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="4" xr2:uid="{8D5A0365-FC49-4B45-9745-CDAC10621CBD}"/>
+    <workbookView xWindow="1185" yWindow="1320" windowWidth="23880" windowHeight="13455" xr2:uid="{8D5A0365-FC49-4B45-9745-CDAC10621CBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -162,10 +162,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Dane wyjściowe" xfId="2" builtinId="21"/>
@@ -7085,7 +7085,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{B164F0DA-1F63-EA44-B881-8D39A49386CA}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="173" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="95" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7096,7 +7096,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{07AD5A29-9445-B949-A73D-D4CA0E84D267}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="173" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="95" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7107,7 +7107,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{5DF9955A-73A9-414A-8E77-06CB9B24C006}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="173" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="95" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7118,7 +7118,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{CA340241-CDA9-C142-A5AA-C71B2924847E}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="173" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="95" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7129,7 +7129,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9308439" cy="6071040"/>
+    <xdr:ext cx="9294395" cy="6075947"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Wykres 1">
@@ -7162,7 +7162,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9308439" cy="6071040"/>
+    <xdr:ext cx="9294395" cy="6075947"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Wykres 1">
@@ -7195,7 +7195,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9308439" cy="6071040"/>
+    <xdr:ext cx="9294395" cy="6075947"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Wykres 1">
@@ -7228,7 +7228,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9308439" cy="6071040"/>
+    <xdr:ext cx="9290137" cy="6067295"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Wykres 1">
@@ -7576,1721 +7576,1721 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D79347A-46AA-344D-8690-A9C5607A7F27}">
   <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.1640625" customWidth="1"/>
+    <col min="2" max="11" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>100</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>300</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>500</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>700</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>900</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="2">
         <v>1100</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="2">
         <v>1300</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="2">
         <v>1500</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="2">
         <v>1700</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="2">
         <v>1900</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="2">
         <v>2100</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>1.8370000000000001E-3</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>4.3686000000000003E-2</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>0.20024800000000001</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>0.55510599999999999</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>1.168757</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <v>2.1384799999999999</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="2">
         <v>3.5968659999999999</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="2">
         <v>5.4545700000000004</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="2">
         <v>7.9322239999999997</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="2">
         <v>11.085542</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="2">
         <v>15.032503</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>985050</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>26865150</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>124625250</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>342265350</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>727785450</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <v>1329185550</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <v>2194465650</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="2">
         <v>3371625750</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="2">
         <v>4908665850</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="2">
         <v>6853585950</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="2">
         <v>9254386050</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>536.51959199999999</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>615.25591999999995</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>622.40734899999995</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>616.59545900000001</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>622.75048800000002</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <v>621.604736</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <v>610.13031000000001</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="2">
         <v>618.13482699999997</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="2">
         <v>618.83221400000002</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="2">
         <v>618.25006099999996</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="2">
         <v>615.62792999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>20413475</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>555709989</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>2576966566</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>7076183219</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>15045360031</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <v>27476497033</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="2">
         <v>45361594190</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="2">
         <v>69692651515</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="2">
         <v>101461669294</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="2">
         <v>141660647284</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="2">
         <v>191281585722</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>6824204</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>185963020</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>868158084</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>2365520365</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>5062691330</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <v>9189949005</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="2">
         <v>15163848669</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="2">
         <v>23360752651</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="2">
         <v>34303810636</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="2">
         <v>47662456386</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="2">
         <v>64485593284</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>100</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>300</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <v>1100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="2">
         <v>1300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="2">
         <v>1500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="2">
         <v>1700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="2">
         <v>1900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="2">
         <v>2100</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>3.0883000000000001E-2</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>0.1426</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>0.38952199999999998</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>0.83579000000000003</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="2">
         <v>1.6665399999999999</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="2">
         <v>2.5735649999999999</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="2">
         <v>3.8656809999999999</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="2">
         <v>5.6430239999999996</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="2">
         <v>7.8770699999999998</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L11" s="2">
         <v>10.634719</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>985050</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>26865150</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>124625250</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>342265350</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <v>727785450</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="2">
         <v>1329185550</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="2">
         <v>2194465650</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="2">
         <v>3371625750</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="2">
         <v>4908665850</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="2">
         <v>6853585950</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="2">
         <v>9254386050</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>829.16668700000002</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>869.90093999999999</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>873.94982900000002</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>878.68042000000003</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <v>870.79425000000003</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="2">
         <v>797.58105499999999</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="2">
         <v>852.69445800000005</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="2">
         <v>872.19879200000003</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="2">
         <v>869.88110400000005</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="2">
         <v>870.08148200000005</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L13" s="2">
         <v>870.22833300000002</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>16781429</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>457023845</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <v>2119506293</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <v>5820228821</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <v>12375191488</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="2">
         <v>22600394286</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="2">
         <v>37311837032</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="2">
         <v>57325520039</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="2">
         <v>83457443369</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="2">
         <v>116523606809</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="2">
         <v>157340010519</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>4834298</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>135460057</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <v>606755793</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <v>1664334873</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="2">
         <v>3834363579</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="2">
         <v>6578504298</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="2">
         <v>10703089631</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="2">
         <v>16545982042</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="2">
         <v>24155293979</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="2">
         <v>33587288193</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="2">
         <v>45534413751</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>100</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>300</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <v>500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <v>700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="2">
         <v>900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="2">
         <v>1100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="2">
         <v>1300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="2">
         <v>1500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="2">
         <v>1700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="2">
         <v>1900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="2">
         <v>2100</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>6.3900000000000003E-4</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <v>1.7270000000000001E-2</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2">
         <v>7.6461000000000001E-2</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="2">
         <v>0.21037700000000001</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="2">
         <v>0.44311299999999998</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="2">
         <v>0.81372500000000003</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="2">
         <v>1.3286210000000001</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="2">
         <v>2.123926</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J19" s="2">
         <v>3.0611570000000001</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K19" s="2">
         <v>4.3100059999999996</v>
       </c>
-      <c r="L19" s="3">
+      <c r="L19" s="2">
         <v>5.8540539999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>661650</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <v>17954950</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="2">
         <v>83208250</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="2">
         <v>228421550</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="2">
         <v>485594850</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="2">
         <v>886728150</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="2">
         <v>1463821450</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="2">
         <v>2248874750</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="2">
         <v>3273888050</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="2">
         <v>4570861350</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="2">
         <v>6171794650</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>1037.06897</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <v>1039.661255</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="2">
         <v>1088.244263</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="2">
         <v>1085.772461</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="2">
         <v>1095.8713379999999</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="2">
         <v>1089.736206</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="2">
         <v>1101.837158</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="2">
         <v>1058.9448239999999</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="2">
         <v>1069.5988769999999</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="2">
         <v>1060.5333250000001</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="2">
         <v>1054.36438</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <v>10970129</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <v>296729935</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="2">
         <v>1374249760</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="2">
         <v>3771529619</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="2">
         <v>8016569521</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="2">
         <v>14637369503</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="2">
         <v>24161929580</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="2">
         <v>37118249692</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="2">
         <v>54034329982</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="2">
         <v>75438170412</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="2">
         <v>101857770881</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <v>2700383</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <v>69516475</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="2">
         <v>321790026</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="2">
         <v>883531532</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="2">
         <v>1878859287</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="2">
         <v>3419225837</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="2">
         <v>5667945058</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="2">
         <v>8791581837</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23" s="2">
         <v>12940551491</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="2">
         <v>18225807198</v>
       </c>
-      <c r="L23" s="3">
+      <c r="L23" s="2">
         <v>24892160185</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <v>100</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="2">
         <v>300</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="2">
         <v>500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="2">
         <v>700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="2">
         <v>900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="2">
         <v>1100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="2">
         <v>1300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="2">
         <v>1500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="2">
         <v>1700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26" s="2">
         <v>1900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="L26" s="2">
         <v>2100</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="2">
         <v>6.2500000000000001E-4</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="2">
         <v>1.6593E-2</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="2">
         <v>7.9824000000000006E-2</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="2">
         <v>0.21317700000000001</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="2">
         <v>0.45094099999999998</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="2">
         <v>0.82311500000000004</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="2">
         <v>1.3666119999999999</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I27" s="2">
         <v>2.1073949999999999</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J27" s="2">
         <v>3.1206740000000002</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K27" s="2">
         <v>4.3816990000000002</v>
       </c>
-      <c r="L27" s="3">
+      <c r="L27" s="2">
         <v>5.9698700000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="2">
         <v>661650</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="2">
         <v>17954950</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="2">
         <v>83208250</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="2">
         <v>228421550</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="2">
         <v>485594850</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28" s="2">
         <v>886728150</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" s="2">
         <v>1463821450</v>
       </c>
-      <c r="I28" s="3">
+      <c r="I28" s="2">
         <v>2248874750</v>
       </c>
-      <c r="J28" s="3">
+      <c r="J28" s="2">
         <v>3273888050</v>
       </c>
-      <c r="K28" s="3">
+      <c r="K28" s="2">
         <v>4570861350</v>
       </c>
-      <c r="L28" s="3">
+      <c r="L28" s="2">
         <v>6171794650</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="2">
         <v>1058.6400149999999</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="2">
         <v>1082.0145259999999</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="2">
         <v>1042.7883300000001</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="2">
         <v>1071.5816649999999</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="2">
         <v>1076.8861079999999</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="2">
         <v>1077.325317</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="2">
         <v>1071.21875</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="2">
         <v>1067.164307</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="2">
         <v>1049.1324460000001</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="2">
         <v>1043.210327</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="2">
         <v>1033.8398440000001</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="2">
         <v>11162739</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="2">
         <v>299232196</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="2">
         <v>1383294173</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="2">
         <v>3793348681</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="2">
         <v>8059395732</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30" s="2">
         <v>14711435358</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30" s="2">
         <v>24279467569</v>
       </c>
-      <c r="I30" s="3">
+      <c r="I30" s="2">
         <v>37293492371</v>
       </c>
-      <c r="J30" s="3">
+      <c r="J30" s="2">
         <v>54283509782</v>
       </c>
-      <c r="K30" s="3">
+      <c r="K30" s="2">
         <v>75779519900</v>
       </c>
-      <c r="L30" s="3">
+      <c r="L30" s="2">
         <v>102311522600</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="2">
         <v>2625907</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="2">
         <v>71912289</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="2">
         <v>330581171</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="2">
         <v>909026911</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="2">
         <v>1922361752</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G31" s="2">
         <v>3525802485</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H31" s="2">
         <v>5840596420</v>
       </c>
-      <c r="I31" s="3">
+      <c r="I31" s="2">
         <v>9016585648</v>
       </c>
-      <c r="J31" s="3">
+      <c r="J31" s="2">
         <v>13368668917</v>
       </c>
-      <c r="K31" s="3">
+      <c r="K31" s="2">
         <v>18699716169</v>
       </c>
-      <c r="L31" s="3">
+      <c r="L31" s="2">
         <v>25324808236</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="2">
         <v>100</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="2">
         <v>300</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="2">
         <v>500</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="2">
         <v>700</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="2">
         <v>900</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G34" s="2">
         <v>1100</v>
       </c>
-      <c r="H34" s="3">
+      <c r="H34" s="2">
         <v>1300</v>
       </c>
-      <c r="I34" s="3">
+      <c r="I34" s="2">
         <v>1500</v>
       </c>
-      <c r="J34" s="3">
+      <c r="J34" s="2">
         <v>1700</v>
       </c>
-      <c r="K34" s="3">
+      <c r="K34" s="2">
         <v>1900</v>
       </c>
-      <c r="L34" s="3">
+      <c r="L34" s="2">
         <v>2100</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="2">
         <v>7.4899999999999999E-4</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="2">
         <v>1.8408000000000001E-2</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="2">
         <v>8.5962999999999998E-2</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="2">
         <v>0.235039</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="2">
         <v>0.50029199999999996</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G35" s="2">
         <v>0.91647100000000004</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H35" s="2">
         <v>1.508821</v>
       </c>
-      <c r="I35" s="3">
+      <c r="I35" s="2">
         <v>2.336252</v>
       </c>
-      <c r="J35" s="3">
+      <c r="J35" s="2">
         <v>3.4264230000000002</v>
       </c>
-      <c r="K35" s="3">
+      <c r="K35" s="2">
         <v>4.8040620000000001</v>
       </c>
-      <c r="L35" s="3">
+      <c r="L35" s="2">
         <v>6.5425269999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="2">
         <v>661650</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="2">
         <v>17954950</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="2">
         <v>83208250</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="2">
         <v>228421550</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="2">
         <v>485594850</v>
       </c>
-      <c r="G36" s="3">
+      <c r="G36" s="2">
         <v>886728150</v>
       </c>
-      <c r="H36" s="3">
+      <c r="H36" s="2">
         <v>1463821450</v>
       </c>
-      <c r="I36" s="3">
+      <c r="I36" s="2">
         <v>2248874750</v>
       </c>
-      <c r="J36" s="3">
+      <c r="J36" s="2">
         <v>3273888050</v>
       </c>
-      <c r="K36" s="3">
+      <c r="K36" s="2">
         <v>4570861350</v>
       </c>
-      <c r="L36" s="3">
+      <c r="L36" s="2">
         <v>6171794650</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="2">
         <v>883.37780799999996</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="2">
         <v>976.02465800000004</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="2">
         <v>968.13439900000003</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="2">
         <v>971.93212900000003</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="2">
         <v>970.62091099999998</v>
       </c>
-      <c r="G37" s="3">
+      <c r="G37" s="2">
         <v>967.58325200000002</v>
       </c>
-      <c r="H37" s="3">
+      <c r="H37" s="2">
         <v>970.19622800000002</v>
       </c>
-      <c r="I37" s="3">
+      <c r="I37" s="2">
         <v>962.66943400000002</v>
       </c>
-      <c r="J37" s="3">
+      <c r="J37" s="2">
         <v>955.50952099999995</v>
       </c>
-      <c r="K37" s="3">
+      <c r="K37" s="2">
         <v>951.47863800000005</v>
       </c>
-      <c r="L37" s="3">
+      <c r="L37" s="2">
         <v>943.34722899999997</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="2">
         <v>10167789</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="2">
         <v>272277347</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="2">
         <v>1258419425</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="2">
         <v>3450594044</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="2">
         <v>7330801218</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G38" s="2">
         <v>13381040983</v>
       </c>
-      <c r="H38" s="3">
+      <c r="H38" s="2">
         <v>22083313291</v>
       </c>
-      <c r="I38" s="3">
+      <c r="I38" s="2">
         <v>33919618297</v>
       </c>
-      <c r="J38" s="3">
+      <c r="J38" s="2">
         <v>49371955855</v>
       </c>
-      <c r="K38" s="3">
+      <c r="K38" s="2">
         <v>68922326198</v>
       </c>
-      <c r="L38" s="3">
+      <c r="L38" s="2">
         <v>93052728922</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="2">
         <v>2905900</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="2">
         <v>78617559</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="2">
         <v>368283196</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="2">
         <v>1006671856</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="2">
         <v>2138828820</v>
       </c>
-      <c r="G39" s="3">
+      <c r="G39" s="2">
         <v>3933953791</v>
       </c>
-      <c r="H39" s="3">
+      <c r="H39" s="2">
         <v>6453753152</v>
       </c>
-      <c r="I39" s="3">
+      <c r="I39" s="2">
         <v>9962500343</v>
       </c>
-      <c r="J39" s="3">
+      <c r="J39" s="2">
         <v>14713781980</v>
       </c>
-      <c r="K39" s="3">
+      <c r="K39" s="2">
         <v>20564775031</v>
       </c>
-      <c r="L39" s="3">
+      <c r="L39" s="2">
         <v>27929536582</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="2">
         <v>100</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="2">
         <v>300</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="2">
         <v>500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="2">
         <v>700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="2">
         <v>900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42" s="2">
         <v>1100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H42" s="2">
         <v>1300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="I42" s="2">
         <v>1500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J42" s="2">
         <v>1700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="K42" s="2">
         <v>1900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="L42" s="2">
         <v>2100</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="2">
         <v>5.5199999999999997E-4</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="2">
         <v>1.4633E-2</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="2">
         <v>6.8413000000000002E-2</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="2">
         <v>0.18545</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="2">
         <v>0.39394400000000002</v>
       </c>
-      <c r="G43" s="3">
+      <c r="G43" s="2">
         <v>0.72473900000000002</v>
       </c>
-      <c r="H43" s="3">
+      <c r="H43" s="2">
         <v>1.186631</v>
       </c>
-      <c r="I43" s="3">
+      <c r="I43" s="2">
         <v>1.85572</v>
       </c>
-      <c r="J43" s="3">
+      <c r="J43" s="2">
         <v>2.745676</v>
       </c>
-      <c r="K43" s="3">
+      <c r="K43" s="2">
         <v>3.833148</v>
       </c>
-      <c r="L43" s="3">
+      <c r="L43" s="2">
         <v>5.2236690000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="2">
         <v>661650</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="2">
         <v>17954950</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="2">
         <v>83208250</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="2">
         <v>228421550</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="2">
         <v>485594850</v>
       </c>
-      <c r="G44" s="3">
+      <c r="G44" s="2">
         <v>886728150</v>
       </c>
-      <c r="H44" s="3">
+      <c r="H44" s="2">
         <v>1463821450</v>
       </c>
-      <c r="I44" s="3">
+      <c r="I44" s="2">
         <v>2248874750</v>
       </c>
-      <c r="J44" s="3">
+      <c r="J44" s="2">
         <v>3273888050</v>
       </c>
-      <c r="K44" s="3">
+      <c r="K44" s="2">
         <v>4570861350</v>
       </c>
-      <c r="L44" s="3">
+      <c r="L44" s="2">
         <v>6171794650</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="2">
         <v>1200.81665</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="2">
         <v>1227.0177000000001</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="2">
         <v>1216.2814940000001</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45" s="2">
         <v>1231.7150879999999</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="2">
         <v>1232.6964109999999</v>
       </c>
-      <c r="G45" s="3">
+      <c r="G45" s="2">
         <v>1223.513794</v>
       </c>
-      <c r="H45" s="3">
+      <c r="H45" s="2">
         <v>1233.628784</v>
       </c>
-      <c r="I45" s="3">
+      <c r="I45" s="2">
         <v>1211.887207</v>
       </c>
-      <c r="J45" s="3">
+      <c r="J45" s="2">
         <v>1192.5042719999999</v>
       </c>
-      <c r="K45" s="3">
+      <c r="K45" s="2">
         <v>1192.4976810000001</v>
       </c>
-      <c r="L45" s="3">
+      <c r="L45" s="2">
         <v>1181.515625</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="2">
         <v>8984628</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="2">
         <v>237642884</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="2">
         <v>1095553656</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E46" s="2">
         <v>3000716963</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F46" s="2">
         <v>6371132825</v>
       </c>
-      <c r="G46" s="3">
+      <c r="G46" s="2">
         <v>11624801203</v>
       </c>
-      <c r="H46" s="3">
+      <c r="H46" s="2">
         <v>19179722187</v>
       </c>
-      <c r="I46" s="3">
+      <c r="I46" s="2">
         <v>29453895766</v>
       </c>
-      <c r="J46" s="3">
+      <c r="J46" s="2">
         <v>42865321928</v>
       </c>
-      <c r="K46" s="3">
+      <c r="K46" s="2">
         <v>59832000680</v>
       </c>
-      <c r="L46" s="3">
+      <c r="L46" s="2">
         <v>80771932057</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="2">
         <v>2329553</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="2">
         <v>62091031</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="2">
         <v>290852027</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="2">
         <v>789991279</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="2">
         <v>1674712108</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="2">
         <v>3062810455</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H47" s="2">
         <v>5076978152</v>
       </c>
-      <c r="I47" s="3">
+      <c r="I47" s="2">
         <v>7807028447</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J47" s="2">
         <v>11581831912</v>
       </c>
-      <c r="K47" s="3">
+      <c r="K47" s="2">
         <v>16308318711</v>
       </c>
-      <c r="L47" s="3">
+      <c r="L47" s="2">
         <v>22165458095</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50" s="2">
         <v>100</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50" s="2">
         <v>300</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D50" s="2">
         <v>500</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E50" s="2">
         <v>700</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F50" s="2">
         <v>900</v>
       </c>
-      <c r="G50" s="3">
+      <c r="G50" s="2">
         <v>1100</v>
       </c>
-      <c r="H50" s="3">
+      <c r="H50" s="2">
         <v>1300</v>
       </c>
-      <c r="I50" s="3">
+      <c r="I50" s="2">
         <v>1500</v>
       </c>
-      <c r="J50" s="3">
+      <c r="J50" s="2">
         <v>1700</v>
       </c>
-      <c r="K50" s="3">
+      <c r="K50" s="2">
         <v>1900</v>
       </c>
-      <c r="L50" s="3">
+      <c r="L50" s="2">
         <v>2100</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51" s="2">
         <v>3.4400000000000001E-4</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51" s="2">
         <v>8.0149999999999996E-3</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51" s="2">
         <v>3.6409999999999998E-2</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E51" s="2">
         <v>0.10000100000000001</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F51" s="2">
         <v>0.21023500000000001</v>
       </c>
-      <c r="G51" s="3">
+      <c r="G51" s="2">
         <v>0.38483800000000001</v>
       </c>
-      <c r="H51" s="3">
+      <c r="H51" s="2">
         <v>0.62970599999999999</v>
       </c>
-      <c r="I51" s="3">
+      <c r="I51" s="2">
         <v>1.040597</v>
       </c>
-      <c r="J51" s="3">
+      <c r="J51" s="2">
         <v>1.527088</v>
       </c>
-      <c r="K51" s="3">
+      <c r="K51" s="2">
         <v>2.2264949999999999</v>
       </c>
-      <c r="L51" s="3">
+      <c r="L51" s="2">
         <v>3.036759</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52" s="2">
         <v>661650</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52" s="2">
         <v>17954950</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="2">
         <v>83208250</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="2">
         <v>228421550</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="2">
         <v>485594850</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G52" s="2">
         <v>886728150</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H52" s="2">
         <v>1463821450</v>
       </c>
-      <c r="I52" s="3">
+      <c r="I52" s="2">
         <v>2248874750</v>
       </c>
-      <c r="J52" s="3">
+      <c r="J52" s="2">
         <v>3273888050</v>
       </c>
-      <c r="K52" s="3">
+      <c r="K52" s="2">
         <v>4570861350</v>
       </c>
-      <c r="L52" s="3">
+      <c r="L52" s="2">
         <v>6171794650</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53" s="2">
         <v>1929.008789</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53" s="2">
         <v>2240.4479980000001</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D53" s="2">
         <v>2285.3129880000001</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E53" s="2">
         <v>2284.1926269999999</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F53" s="2">
         <v>2309.9365229999999</v>
       </c>
-      <c r="G53" s="3">
+      <c r="G53" s="2">
         <v>2304.249268</v>
       </c>
-      <c r="H53" s="3">
+      <c r="H53" s="2">
         <v>2324.6145019999999</v>
       </c>
-      <c r="I53" s="3">
+      <c r="I53" s="2">
         <v>2161.1411130000001</v>
       </c>
-      <c r="J53" s="3">
+      <c r="J53" s="2">
         <v>2143.9296880000002</v>
       </c>
-      <c r="K53" s="3">
+      <c r="K53" s="2">
         <v>2052.9670409999999</v>
       </c>
-      <c r="L53" s="3">
+      <c r="L53" s="2">
         <v>2032.380371</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54" s="2">
         <v>5496173</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54" s="2">
         <v>127829172</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54" s="2">
         <v>572974937</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E54" s="2">
         <v>1549620666</v>
       </c>
-      <c r="F54" s="3">
+      <c r="F54" s="2">
         <v>3267238777</v>
       </c>
-      <c r="G54" s="3">
+      <c r="G54" s="2">
         <v>5934197251</v>
       </c>
-      <c r="H54" s="3">
+      <c r="H54" s="2">
         <v>9760287722</v>
       </c>
-      <c r="I54" s="3">
+      <c r="I54" s="2">
         <v>14953558975</v>
       </c>
-      <c r="J54" s="3">
+      <c r="J54" s="2">
         <v>21724121893</v>
       </c>
-      <c r="K54" s="3">
+      <c r="K54" s="2">
         <v>30279706018</v>
       </c>
-      <c r="L54" s="3">
+      <c r="L54" s="2">
         <v>40830741390</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B55" s="2">
         <v>1424565</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55" s="2">
         <v>33776543</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D55" s="2">
         <v>155061627</v>
       </c>
-      <c r="E55" s="3">
+      <c r="E55" s="2">
         <v>421913488</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F55" s="2">
         <v>902871706</v>
       </c>
-      <c r="G55" s="3">
+      <c r="G55" s="2">
         <v>1619752585</v>
       </c>
-      <c r="H55" s="3">
+      <c r="H55" s="2">
         <v>2706983064</v>
       </c>
-      <c r="I55" s="3">
+      <c r="I55" s="2">
         <v>4164277285</v>
       </c>
-      <c r="J55" s="3">
+      <c r="J55" s="2">
         <v>6486093370</v>
       </c>
-      <c r="K55" s="3">
+      <c r="K55" s="2">
         <v>9458518973</v>
       </c>
-      <c r="L55" s="3">
+      <c r="L55" s="2">
         <v>13007379830</v>
       </c>
     </row>
